--- a/CAMOutputs/Assembly/BOM_Raine.xlsx
+++ b/CAMOutputs/Assembly/BOM_Raine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elliot Powell\Documents\EAGLE\projects\Raine\CAMOutputs\Assembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elliot Powell\Downloads\Raine\CAMOutputs\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EBB7C873-8AB8-491B-ADB9-376BEDCDEC92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627D34C3-EE87-4062-BCA1-61E281A448B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="3165" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="255" yWindow="840" windowWidth="22050" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,8 +24,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - BOM_Raine" description="Connection to the 'BOM_Raine' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - BOM_Raine" description="Connection to the 'BOM_Raine' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=BOM_Raine;Extended Properties=&quot;&quot;" command="SELECT * FROM [BOM_Raine]"/>
   </connection>
 </connections>
@@ -106,9 +106,6 @@
     <t>SW_TL3342F160QG/TR</t>
   </si>
   <si>
-    <t>SW1</t>
-  </si>
-  <si>
     <t>USB-C-M12-TYPE-C-31-M12</t>
   </si>
   <si>
@@ -188,12 +185,15 @@
   </si>
   <si>
     <t>Crystal</t>
+  </si>
+  <si>
+    <t>SW1, SW2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,7 +760,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="19">
     <queryTableFields count="6">
       <queryTableField id="1" name="Qty" tableColumnId="1"/>
@@ -788,15 +788,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="BOM_Raine" displayName="BOM_Raine" ref="A1:F13" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="BOM_Raine" displayName="BOM_Raine" ref="A1:F13" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Qty" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="14" uniqueName="14" name="LCSC Part Number" queryTableFieldId="14" dataDxfId="0"/>
-    <tableColumn id="5" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Qty" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="LCSC Part Number" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1098,11 +1098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1159,16 +1159,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>603</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1182,13 +1182,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>603</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -1199,16 +1199,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>603</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
@@ -1219,16 +1219,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>603</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -1239,16 +1239,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1">
         <v>603</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -1259,16 +1259,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1">
         <v>603</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -1282,13 +1282,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>603</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -1299,16 +1299,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D10" s="1">
         <v>3225</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -1328,7 +1328,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>21</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -1348,10 +1348,10 @@
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,35 +1359,35 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" display="https://lcsc.com/product-detail/Tactile-Switches_SHOU-HAN-SHOU-HAN-4-4-1-5Switch_C388295.html"/>
-    <hyperlink ref="E8" r:id="rId2" display="https://lcsc.com/product-detail/Others_Samsung-Electro-Mechanics_CL10A475KQ8NNND_Samsung-Electro-Mechanics-CL10A475KQ8NNND_C307470.html"/>
-    <hyperlink ref="E13" r:id="rId3" display="https://lcsc.com/product-detail/USB-Type-C_Korean-Hroparts-Elec-TYPE-C-31-M-12_C165948.html"/>
-    <hyperlink ref="E4" r:id="rId4" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_10KR-103-5_C99198.html"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_22R-22R-5_C96423.html"/>
-    <hyperlink ref="E5" r:id="rId6" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10B105KP8NNNC_1uF-105-10-10V_C95843.html"/>
-    <hyperlink ref="E3" r:id="rId7" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-20-50V_C42998.html"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAJ0512T5E_C26000.html"/>
-    <hyperlink ref="E7" r:id="rId9" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10C220JB8NNNC_22pF-220-5-50V_C1653.html"/>
-    <hyperlink ref="E11" r:id="rId10" display="https://lcsc.com/product-detail/ATMEL-AVR_ATMEL_ATMEGA32U4-AU_ATMEGA32U4-AU_C44854.html"/>
-    <hyperlink ref="E2" r:id="rId11" display="https://lcsc.com/product-detail/Diodes-General-Purpose_1N4004W_C162734.html"/>
-    <hyperlink ref="E10" r:id="rId12" display="https://lcsc.com/product-detail/SMD-Crystal-Resonators_TXC-Corp-7V16000005_C331572.html"/>
+    <hyperlink ref="E12" r:id="rId1" display="https://lcsc.com/product-detail/Tactile-Switches_SHOU-HAN-SHOU-HAN-4-4-1-5Switch_C388295.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E8" r:id="rId2" display="https://lcsc.com/product-detail/Others_Samsung-Electro-Mechanics_CL10A475KQ8NNND_Samsung-Electro-Mechanics-CL10A475KQ8NNND_C307470.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E13" r:id="rId3" display="https://lcsc.com/product-detail/USB-Type-C_Korean-Hroparts-Elec-TYPE-C-31-M-12_C165948.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_10KR-103-5_C99198.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_22R-22R-5_C96423.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E5" r:id="rId6" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10B105KP8NNNC_1uF-105-10-10V_C95843.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E3" r:id="rId7" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-20-50V_C42998.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAJ0512T5E_C26000.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E7" r:id="rId9" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10C220JB8NNNC_22pF-220-5-50V_C1653.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://lcsc.com/product-detail/ATMEL-AVR_ATMEL_ATMEGA32U4-AU_ATMEGA32U4-AU_C44854.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E2" r:id="rId11" display="https://lcsc.com/product-detail/Diodes-General-Purpose_1N4004W_C162734.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E10" r:id="rId12" display="https://lcsc.com/product-detail/SMD-Crystal-Resonators_TXC-Corp-7V16000005_C331572.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -1398,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CAMOutputs/Assembly/BOM_Raine.xlsx
+++ b/CAMOutputs/Assembly/BOM_Raine.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elliot Powell\Downloads\Raine\CAMOutputs\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627D34C3-EE87-4062-BCA1-61E281A448B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5426D151-F596-4209-8FCE-9948A4D39B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="840" windowWidth="22050" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="3135" windowWidth="22050" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="BOM_Raine" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$F$13</definedName>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Qty</t>
   </si>
@@ -49,9 +48,6 @@
     <t>Parts</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>D_SOD123-SOD-123</t>
   </si>
   <si>
@@ -124,63 +120,24 @@
     <t>ATMEGA32U4</t>
   </si>
   <si>
-    <t>0.1UF</t>
-  </si>
-  <si>
-    <t>1UF</t>
-  </si>
-  <si>
-    <t>22OHM</t>
-  </si>
-  <si>
-    <t>22PF</t>
-  </si>
-  <si>
-    <t>4.7UF</t>
-  </si>
-  <si>
     <t>LCSC Part Number</t>
   </si>
   <si>
     <t>C44854</t>
   </si>
   <si>
-    <t>C162734</t>
-  </si>
-  <si>
     <t>C165948</t>
   </si>
   <si>
     <t>C1653</t>
   </si>
   <si>
-    <t>C26000</t>
-  </si>
-  <si>
-    <t>C42998</t>
-  </si>
-  <si>
-    <t>C95843</t>
-  </si>
-  <si>
-    <t>C96423</t>
-  </si>
-  <si>
-    <t>C99198</t>
-  </si>
-  <si>
-    <t>C307470</t>
-  </si>
-  <si>
     <t>Reset switch</t>
   </si>
   <si>
     <t>C388295</t>
   </si>
   <si>
-    <t>C331572</t>
-  </si>
-  <si>
     <t>16MHZ</t>
   </si>
   <si>
@@ -188,6 +145,57 @@
   </si>
   <si>
     <t>SW1, SW2</t>
+  </si>
+  <si>
+    <t>C23186</t>
+  </si>
+  <si>
+    <t>100nf</t>
+  </si>
+  <si>
+    <t>C14663</t>
+  </si>
+  <si>
+    <t>C15849</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>22omh</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>C25197</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C22961</t>
+  </si>
+  <si>
+    <t>C19666</t>
+  </si>
+  <si>
+    <t>C13738</t>
+  </si>
+  <si>
+    <t>C81598</t>
+  </si>
+  <si>
+    <t>1n4148W</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>CR3225</t>
   </si>
 </sst>
 </file>
@@ -330,9 +338,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -635,7 +642,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -678,14 +685,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -719,7 +726,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1102,7 +1108,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1139,19 +1145,19 @@
         <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,19 +1165,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1">
-        <v>603</v>
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1179,19 +1185,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1">
-        <v>603</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,19 +1205,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1">
-        <v>603</v>
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,16 +1225,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1">
-        <v>603</v>
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -1239,19 +1245,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1">
-        <v>603</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,19 +1265,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1">
-        <v>603</v>
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,19 +1285,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1">
-        <v>603</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1299,19 +1305,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3225</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1319,19 +1325,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,19 +1345,19 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,55 +1365,27 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" display="https://lcsc.com/product-detail/Tactile-Switches_SHOU-HAN-SHOU-HAN-4-4-1-5Switch_C388295.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E8" r:id="rId2" display="https://lcsc.com/product-detail/Others_Samsung-Electro-Mechanics_CL10A475KQ8NNND_Samsung-Electro-Mechanics-CL10A475KQ8NNND_C307470.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E13" r:id="rId3" display="https://lcsc.com/product-detail/USB-Type-C_Korean-Hroparts-Elec-TYPE-C-31-M-12_C165948.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E4" r:id="rId4" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_10KR-103-5_C99198.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_22R-22R-5_C96423.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E5" r:id="rId6" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10B105KP8NNNC_1uF-105-10-10V_C95843.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E3" r:id="rId7" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-20-50V_C42998.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAJ0512T5E_C26000.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E7" r:id="rId9" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10C220JB8NNNC_22pF-220-5-50V_C1653.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId10" display="https://lcsc.com/product-detail/ATMEL-AVR_ATMEL_ATMEGA32U4-AU_ATMEGA32U4-AU_C44854.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E2" r:id="rId11" display="https://lcsc.com/product-detail/Diodes-General-Purpose_1N4004W_C162734.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E10" r:id="rId12" display="https://lcsc.com/product-detail/SMD-Crystal-Resonators_TXC-Corp-7V16000005_C331572.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BV17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
